--- a/Dashboards-test/SPACE.xlsx
+++ b/Dashboards-test/SPACE.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$71</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$69</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$71</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$69</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$71</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$71</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$69</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$69</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -64,9 +64,6 @@
     <x:t>FULL_HD</x:t>
   </x:si>
   <x:si>
-    <x:t>ELEMINATOR</x:t>
-  </x:si>
-  <x:si>
     <x:t>GABBRYEL</x:t>
   </x:si>
   <x:si>
@@ -76,9 +73,6 @@
     <x:t>172342 alt</x:t>
   </x:si>
   <x:si>
-    <x:t>StormBoy</x:t>
-  </x:si>
-  <x:si>
     <x:t>epic_404</x:t>
   </x:si>
   <x:si>
@@ -308,27 +302,6 @@
   </x:si>
   <x:si>
     <x:t>2,0 (2/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (308/166)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (118/59)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (53/22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (137/85)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (28/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (18/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (10/6)</x:t>
   </x:si>
   <x:si>
     <x:t>1,7 (244/146)</x:t>
@@ -854,6 +827,8 @@
       <x:c r="N2" s="16" t="s"/>
       <x:c r="O2" s="16" t="s"/>
       <x:c r="P2" s="16" t="s"/>
+      <x:c r="Q2" s="16" t="s"/>
+      <x:c r="R2" s="16" t="s"/>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
@@ -885,28 +860,30 @@
       <x:c r="N3" s="16" t="s"/>
       <x:c r="O3" s="16" t="s"/>
       <x:c r="P3" s="16" t="s"/>
+      <x:c r="Q3" s="16" t="s"/>
+      <x:c r="R3" s="16" t="s"/>
     </x:row>
     <x:row r="4" spans="1:146">
       <x:c r="B4" s="14" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>2842.77076041663</x:v>
+        <x:v>2767.50076041669</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>265537.387229166</x:v>
+        <x:v>332020.630583333</x:v>
       </x:c>
       <x:c r="E4" s="16" t="n">
-        <x:v>4226.44516666664</x:v>
+        <x:v>2163.02468749991</x:v>
       </x:c>
       <x:c r="F4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>7010.10702083347</x:v>
       </x:c>
       <x:c r="G4" s="16" t="n">
-        <x:v>1624.049875</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="16" t="n">
-        <x:v>5520.5879999999</x:v>
+        <x:v>1896.87133333337</x:v>
       </x:c>
       <x:c r="I4" s="16" t="s"/>
       <x:c r="J4" s="16" t="s"/>
@@ -916,28 +893,30 @@
       <x:c r="N4" s="16" t="s"/>
       <x:c r="O4" s="16" t="s"/>
       <x:c r="P4" s="16" t="s"/>
+      <x:c r="Q4" s="16" t="s"/>
+      <x:c r="R4" s="16" t="s"/>
     </x:row>
     <x:row r="5" spans="1:146">
       <x:c r="B5" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>2767.50076041669</x:v>
+        <x:v>975.203531250016</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>332020.630583333</x:v>
+        <x:v>263579.402479166</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
-        <x:v>2163.02468749991</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="16" t="n">
-        <x:v>7010.10702083347</x:v>
+        <x:v>262.244999999995</x:v>
       </x:c>
       <x:c r="G5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="16" t="n">
-        <x:v>1896.87133333337</x:v>
+        <x:v>3638.56912500007</x:v>
       </x:c>
       <x:c r="I5" s="16" t="s"/>
       <x:c r="J5" s="16" t="s"/>
@@ -947,101 +926,101 @@
       <x:c r="N5" s="16" t="s"/>
       <x:c r="O5" s="16" t="s"/>
       <x:c r="P5" s="16" t="s"/>
+      <x:c r="Q5" s="16" t="s"/>
+      <x:c r="R5" s="16" t="s"/>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>975.203531250016</x:v>
+        <x:v>276.383185606057</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>263579.402479166</x:v>
-      </x:c>
-      <x:c r="E6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="n">
-        <x:v>262.244999999995</x:v>
-      </x:c>
-      <x:c r="G6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>21779.767875</x:v>
+      </x:c>
+      <x:c r="E6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s"/>
+      <x:c r="G6" s="16" t="s"/>
       <x:c r="H6" s="16" t="n">
-        <x:v>3638.56912500007</x:v>
-      </x:c>
-      <x:c r="I6" s="16" t="s"/>
-      <x:c r="J6" s="16" t="s"/>
-      <x:c r="K6" s="16" t="s"/>
-      <x:c r="L6" s="16" t="s"/>
-      <x:c r="M6" s="16" t="s"/>
-      <x:c r="N6" s="16" t="s"/>
-      <x:c r="O6" s="16" t="s"/>
-      <x:c r="P6" s="16" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O6" s="16" t="n">
+        <x:v>2848.6252083333</x:v>
+      </x:c>
+      <x:c r="P6" s="16" t="n">
+        <x:v>191.589833333332</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
       <x:c r="B7" s="14" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>337.801671296292</x:v>
+        <x:v>10.1871666666678</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>21779.767875</x:v>
+        <x:v>58200.8902291664</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
-      <x:c r="F7" s="16" t="s"/>
-      <x:c r="G7" s="16" t="s"/>
+      <x:c r="F7" s="16" t="n">
+        <x:v>30.5615000000034</x:v>
+      </x:c>
+      <x:c r="G7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="H7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O7" s="16" t="n">
-        <x:v>2848.6252083333</x:v>
-      </x:c>
-      <x:c r="P7" s="16" t="n">
-        <x:v>191.589833333332</x:v>
-      </x:c>
+      <x:c r="I7" s="16" t="s"/>
+      <x:c r="J7" s="16" t="s"/>
+      <x:c r="K7" s="16" t="s"/>
+      <x:c r="L7" s="16" t="s"/>
+      <x:c r="M7" s="16" t="s"/>
+      <x:c r="N7" s="16" t="s"/>
+      <x:c r="O7" s="16" t="s"/>
+      <x:c r="P7" s="16" t="s"/>
+      <x:c r="Q7" s="16" t="s"/>
+      <x:c r="R7" s="16" t="s"/>
     </x:row>
     <x:row r="8" spans="1:146">
       <x:c r="B8" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>211.523697916667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>36176.0311249999</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="n">
-        <x:v>673.673541666671</x:v>
-      </x:c>
-      <x:c r="G8" s="16" t="n">
-        <x:v>172.421249999999</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>279160.684625</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="G8" s="16" t="s"/>
+      <x:c r="H8" s="16" t="s"/>
       <x:c r="I8" s="16" t="s"/>
       <x:c r="J8" s="16" t="s"/>
       <x:c r="K8" s="16" t="s"/>
@@ -1050,27 +1029,23 @@
       <x:c r="N8" s="16" t="s"/>
       <x:c r="O8" s="16" t="s"/>
       <x:c r="P8" s="16" t="s"/>
+      <x:c r="Q8" s="16" t="s"/>
+      <x:c r="R8" s="16" t="s"/>
     </x:row>
     <x:row r="9" spans="1:146">
       <x:c r="B9" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>10.1871666666678</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>58200.8902291664</x:v>
+        <x:v>438482.969375</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s"/>
-      <x:c r="F9" s="16" t="n">
-        <x:v>30.5615000000034</x:v>
-      </x:c>
-      <x:c r="G9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F9" s="16" t="s"/>
+      <x:c r="G9" s="16" t="s"/>
+      <x:c r="H9" s="16" t="s"/>
       <x:c r="I9" s="16" t="s"/>
       <x:c r="J9" s="16" t="s"/>
       <x:c r="K9" s="16" t="s"/>
@@ -1079,6 +1054,8 @@
       <x:c r="N9" s="16" t="s"/>
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
@@ -1088,12 +1065,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>279160.684625</x:v>
-      </x:c>
-      <x:c r="E10" s="16" t="s"/>
-      <x:c r="F10" s="16" t="s"/>
-      <x:c r="G10" s="16" t="s"/>
-      <x:c r="H10" s="16" t="s"/>
+        <x:v>737689.849000001</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I10" s="16" t="s"/>
       <x:c r="J10" s="16" t="s"/>
       <x:c r="K10" s="16" t="s"/>
@@ -1102,6 +1087,8 @@
       <x:c r="N10" s="16" t="s"/>
       <x:c r="O10" s="16" t="s"/>
       <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
@@ -1111,7 +1098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>438482.969375</x:v>
+        <x:v>234791.129083333</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="s"/>
@@ -1125,6 +1112,8 @@
       <x:c r="N11" s="16" t="s"/>
       <x:c r="O11" s="16" t="s"/>
       <x:c r="P11" s="16" t="s"/>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
@@ -1134,20 +1123,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>737689.849000001</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>37425.9202916667</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s"/>
+      <x:c r="F12" s="16" t="s"/>
+      <x:c r="G12" s="16" t="s"/>
+      <x:c r="H12" s="16" t="s"/>
       <x:c r="I12" s="16" t="s"/>
       <x:c r="J12" s="16" t="s"/>
       <x:c r="K12" s="16" t="s"/>
@@ -1156,6 +1137,8 @@
       <x:c r="N12" s="16" t="s"/>
       <x:c r="O12" s="16" t="s"/>
       <x:c r="P12" s="16" t="s"/>
+      <x:c r="Q12" s="16" t="s"/>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -1165,7 +1148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>234791.129083333</x:v>
+        <x:v>227108.81075</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s"/>
       <x:c r="F13" s="16" t="s"/>
@@ -1179,7 +1162,9 @@
       <x:c r="N13" s="16" t="s"/>
       <x:c r="O13" s="16" t="s"/>
       <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -1189,7 +1174,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>37425.9202916667</x:v>
+        <x:v>100502.083416667</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s"/>
       <x:c r="F14" s="16" t="s"/>
@@ -1203,10 +1188,12 @@
       <x:c r="N14" s="16" t="s"/>
       <x:c r="O14" s="16" t="s"/>
       <x:c r="P14" s="16" t="s"/>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="s"/>
+      <x:c r="R14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1216,7 +1203,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>227108.81075</x:v>
+        <x:v>26981.7892916667</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s"/>
       <x:c r="F15" s="16" t="s"/>
@@ -1230,6 +1217,8 @@
       <x:c r="N15" s="16" t="s"/>
       <x:c r="O15" s="16" t="s"/>
       <x:c r="P15" s="16" t="s"/>
+      <x:c r="Q15" s="16" t="s"/>
+      <x:c r="R15" s="16" t="s"/>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1239,12 +1228,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>100502.083416667</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
-      <x:c r="H16" s="16" t="s"/>
+        <x:v>459636.67</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I16" s="16" t="s"/>
       <x:c r="J16" s="16" t="s"/>
       <x:c r="K16" s="16" t="s"/>
@@ -1253,6 +1250,8 @@
       <x:c r="N16" s="16" t="s"/>
       <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
@@ -1262,7 +1261,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>26981.7892916667</x:v>
+        <x:v>329514.088333333</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s"/>
       <x:c r="F17" s="16" t="s"/>
@@ -1276,6 +1275,8 @@
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
@@ -1285,20 +1286,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>459636.67</x:v>
-      </x:c>
-      <x:c r="E18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>25871.63375</x:v>
+      </x:c>
+      <x:c r="E18" s="16" t="s"/>
+      <x:c r="F18" s="16" t="s"/>
+      <x:c r="G18" s="16" t="s"/>
+      <x:c r="H18" s="16" t="s"/>
       <x:c r="I18" s="16" t="s"/>
       <x:c r="J18" s="16" t="s"/>
       <x:c r="K18" s="16" t="s"/>
@@ -1307,6 +1300,8 @@
       <x:c r="N18" s="16" t="s"/>
       <x:c r="O18" s="16" t="s"/>
       <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
@@ -1316,7 +1311,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>329514.088333333</x:v>
+        <x:v>131295.461958333</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="s"/>
@@ -1330,6 +1325,8 @@
       <x:c r="N19" s="16" t="s"/>
       <x:c r="O19" s="16" t="s"/>
       <x:c r="P19" s="16" t="s"/>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
@@ -1339,7 +1336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>25871.63375</x:v>
+        <x:v>184635.162208333</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
       <x:c r="F20" s="16" t="s"/>
@@ -1353,6 +1350,8 @@
       <x:c r="N20" s="16" t="s"/>
       <x:c r="O20" s="16" t="s"/>
       <x:c r="P20" s="16" t="s"/>
+      <x:c r="Q20" s="16" t="s"/>
+      <x:c r="R20" s="16" t="s"/>
     </x:row>
     <x:row r="21" spans="1:146">
       <x:c r="B21" s="14" t="s">
@@ -1362,7 +1361,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>131295.461958333</x:v>
+        <x:v>5110.93533333333</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -1376,6 +1375,8 @@
       <x:c r="N21" s="16" t="s"/>
       <x:c r="O21" s="16" t="s"/>
       <x:c r="P21" s="16" t="s"/>
+      <x:c r="Q21" s="16" t="s"/>
+      <x:c r="R21" s="16" t="s"/>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
@@ -1385,7 +1386,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>184635.162208333</x:v>
+        <x:v>14520.2684166667</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s"/>
       <x:c r="F22" s="16" t="s"/>
@@ -1399,6 +1400,8 @@
       <x:c r="N22" s="16" t="s"/>
       <x:c r="O22" s="16" t="s"/>
       <x:c r="P22" s="16" t="s"/>
+      <x:c r="Q22" s="16" t="s"/>
+      <x:c r="R22" s="16" t="s"/>
     </x:row>
     <x:row r="23" spans="1:146">
       <x:c r="B23" s="14" t="s">
@@ -1408,7 +1411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>5110.93533333333</x:v>
+        <x:v>1923.69491666667</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s"/>
       <x:c r="F23" s="16" t="s"/>
@@ -1422,6 +1425,8 @@
       <x:c r="N23" s="16" t="s"/>
       <x:c r="O23" s="16" t="s"/>
       <x:c r="P23" s="16" t="s"/>
+      <x:c r="Q23" s="16" t="s"/>
+      <x:c r="R23" s="16" t="s"/>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
@@ -1431,12 +1436,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>14520.2684166667</x:v>
-      </x:c>
-      <x:c r="E24" s="16" t="s"/>
-      <x:c r="F24" s="16" t="s"/>
-      <x:c r="G24" s="16" t="s"/>
-      <x:c r="H24" s="16" t="s"/>
+        <x:v>300901.7988125</x:v>
+      </x:c>
+      <x:c r="E24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I24" s="16" t="s"/>
       <x:c r="J24" s="16" t="s"/>
       <x:c r="K24" s="16" t="s"/>
@@ -1445,6 +1458,8 @@
       <x:c r="N24" s="16" t="s"/>
       <x:c r="O24" s="16" t="s"/>
       <x:c r="P24" s="16" t="s"/>
+      <x:c r="Q24" s="16" t="s"/>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
@@ -1454,7 +1469,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>1923.69491666667</x:v>
+        <x:v>4532.35675</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
       <x:c r="F25" s="16" t="s"/>
@@ -1468,6 +1483,8 @@
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
@@ -1477,20 +1494,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>300901.7988125</x:v>
-      </x:c>
-      <x:c r="E26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>7382.33558333333</x:v>
+      </x:c>
+      <x:c r="E26" s="16" t="s"/>
+      <x:c r="F26" s="16" t="s"/>
+      <x:c r="G26" s="16" t="s"/>
+      <x:c r="H26" s="16" t="s"/>
       <x:c r="I26" s="16" t="s"/>
       <x:c r="J26" s="16" t="s"/>
       <x:c r="K26" s="16" t="s"/>
@@ -1499,6 +1508,8 @@
       <x:c r="N26" s="16" t="s"/>
       <x:c r="O26" s="16" t="s"/>
       <x:c r="P26" s="16" t="s"/>
+      <x:c r="Q26" s="16" t="s"/>
+      <x:c r="R26" s="16" t="s"/>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -1508,7 +1519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>4532.35675</x:v>
+        <x:v>49106.5997083333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -1522,6 +1533,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -1531,7 +1544,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>7382.33558333333</x:v>
+        <x:v>7095.14091666667</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -1545,6 +1558,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -1554,7 +1569,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>49106.5997083333</x:v>
+        <x:v>21023.2789166667</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -1568,6 +1583,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -1577,7 +1594,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>7095.14091666667</x:v>
+        <x:v>22597.741</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
@@ -1591,6 +1608,8 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -1600,7 +1619,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>21023.2789166667</x:v>
+        <x:v>16719.4126666667</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -1614,6 +1633,8 @@
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -1623,7 +1644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>22597.741</x:v>
+        <x:v>1941.46766666667</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -1637,6 +1658,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -1646,7 +1669,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>16719.4126666667</x:v>
+        <x:v>2033.35766666667</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -1660,6 +1683,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -1669,7 +1694,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>1941.46766666667</x:v>
+        <x:v>2007.242</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -1683,6 +1708,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -1692,7 +1719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>2033.35766666667</x:v>
+        <x:v>26926.1226666667</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -1706,6 +1733,8 @@
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
       <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -1715,7 +1744,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>2007.242</x:v>
+        <x:v>2589.76475</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -1729,6 +1758,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -1738,7 +1769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>26926.1226666667</x:v>
+        <x:v>34340.7375</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -1752,6 +1783,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -1761,7 +1794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>2589.76475</x:v>
+        <x:v>290587.3780625</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -1775,6 +1808,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -1784,7 +1819,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>34340.7375</x:v>
+        <x:v>81669.8547916667</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -1798,6 +1833,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -1807,7 +1844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>290587.3780625</x:v>
+        <x:v>46587.0992916667</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -1821,6 +1858,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -1830,7 +1869,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>81669.8547916667</x:v>
+        <x:v>9947.23408333333</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -1844,6 +1883,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -1853,7 +1894,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>46587.0992916667</x:v>
+        <x:v>5625.39075</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -1867,6 +1908,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -1876,7 +1919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>9947.23408333333</x:v>
+        <x:v>66291.26575</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -1890,6 +1933,8 @@
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
       <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -1899,7 +1944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>5625.39075</x:v>
+        <x:v>1828.04775</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -1913,6 +1958,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -1922,7 +1969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>66291.26575</x:v>
+        <x:v>4555.48783333333</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
@@ -1936,6 +1983,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -1945,7 +1994,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>1828.04775</x:v>
+        <x:v>1284.12383333333</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
@@ -1959,6 +2008,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -1968,7 +2019,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>4555.48783333333</x:v>
+        <x:v>9687.27508333333</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
@@ -1982,6 +2033,8 @@
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -1991,7 +2044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>1284.12383333333</x:v>
+        <x:v>8425.27441666667</x:v>
       </x:c>
       <x:c r="E48" s="16" t="s"/>
       <x:c r="F48" s="16" t="s"/>
@@ -2005,6 +2058,8 @@
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -2014,7 +2069,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="15" t="n">
-        <x:v>9687.27508333333</x:v>
+        <x:v>18419.15825</x:v>
       </x:c>
       <x:c r="E49" s="16" t="s"/>
       <x:c r="F49" s="16" t="s"/>
@@ -2028,6 +2083,8 @@
       <x:c r="N49" s="16" t="s"/>
       <x:c r="O49" s="16" t="s"/>
       <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -2037,7 +2094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="15" t="n">
-        <x:v>8425.27441666667</x:v>
+        <x:v>63767.8420833333</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s"/>
       <x:c r="F50" s="16" t="s"/>
@@ -2051,6 +2108,8 @@
       <x:c r="N50" s="16" t="s"/>
       <x:c r="O50" s="16" t="s"/>
       <x:c r="P50" s="16" t="s"/>
+      <x:c r="Q50" s="16" t="s"/>
+      <x:c r="R50" s="16" t="s"/>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -2060,7 +2119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="15" t="n">
-        <x:v>18419.15825</x:v>
+        <x:v>140629.95275</x:v>
       </x:c>
       <x:c r="E51" s="16" t="s"/>
       <x:c r="F51" s="16" t="s"/>
@@ -2074,6 +2133,8 @@
       <x:c r="N51" s="16" t="s"/>
       <x:c r="O51" s="16" t="s"/>
       <x:c r="P51" s="16" t="s"/>
+      <x:c r="Q51" s="16" t="s"/>
+      <x:c r="R51" s="16" t="s"/>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -2083,7 +2144,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="15" t="n">
-        <x:v>63767.8420833333</x:v>
+        <x:v>154678.098458333</x:v>
       </x:c>
       <x:c r="E52" s="16" t="s"/>
       <x:c r="F52" s="16" t="s"/>
@@ -2097,6 +2158,8 @@
       <x:c r="N52" s="16" t="s"/>
       <x:c r="O52" s="16" t="s"/>
       <x:c r="P52" s="16" t="s"/>
+      <x:c r="Q52" s="16" t="s"/>
+      <x:c r="R52" s="16" t="s"/>
     </x:row>
     <x:row r="53" spans="1:146">
       <x:c r="B53" s="14" t="s">
@@ -2106,7 +2169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="15" t="n">
-        <x:v>140629.95275</x:v>
+        <x:v>107617.163208333</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s"/>
       <x:c r="F53" s="16" t="s"/>
@@ -2120,6 +2183,8 @@
       <x:c r="N53" s="16" t="s"/>
       <x:c r="O53" s="16" t="s"/>
       <x:c r="P53" s="16" t="s"/>
+      <x:c r="Q53" s="16" t="s"/>
+      <x:c r="R53" s="16" t="s"/>
     </x:row>
     <x:row r="54" spans="1:146">
       <x:c r="B54" s="14" t="s">
@@ -2129,7 +2194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="15" t="n">
-        <x:v>154678.098458333</x:v>
+        <x:v>460797.397291667</x:v>
       </x:c>
       <x:c r="E54" s="16" t="s"/>
       <x:c r="F54" s="16" t="s"/>
@@ -2143,6 +2208,8 @@
       <x:c r="N54" s="16" t="s"/>
       <x:c r="O54" s="16" t="s"/>
       <x:c r="P54" s="16" t="s"/>
+      <x:c r="Q54" s="16" t="s"/>
+      <x:c r="R54" s="16" t="s"/>
     </x:row>
     <x:row r="55" spans="1:146">
       <x:c r="B55" s="14" t="s">
@@ -2152,7 +2219,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="15" t="n">
-        <x:v>107617.163208333</x:v>
+        <x:v>248334.266083333</x:v>
       </x:c>
       <x:c r="E55" s="16" t="s"/>
       <x:c r="F55" s="16" t="s"/>
@@ -2166,6 +2233,8 @@
       <x:c r="N55" s="16" t="s"/>
       <x:c r="O55" s="16" t="s"/>
       <x:c r="P55" s="16" t="s"/>
+      <x:c r="Q55" s="16" t="s"/>
+      <x:c r="R55" s="16" t="s"/>
     </x:row>
     <x:row r="56" spans="1:146">
       <x:c r="B56" s="14" t="s">
@@ -2175,7 +2244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="15" t="n">
-        <x:v>460797.397291667</x:v>
+        <x:v>143515.065166666</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s"/>
       <x:c r="F56" s="16" t="s"/>
@@ -2189,6 +2258,8 @@
       <x:c r="N56" s="16" t="s"/>
       <x:c r="O56" s="16" t="s"/>
       <x:c r="P56" s="16" t="s"/>
+      <x:c r="Q56" s="16" t="s"/>
+      <x:c r="R56" s="16" t="s"/>
     </x:row>
     <x:row r="57" spans="1:146">
       <x:c r="B57" s="14" t="s">
@@ -2198,7 +2269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="15" t="n">
-        <x:v>248334.266083333</x:v>
+        <x:v>36334.9508749998</x:v>
       </x:c>
       <x:c r="E57" s="16" t="s"/>
       <x:c r="F57" s="16" t="s"/>
@@ -2212,6 +2283,8 @@
       <x:c r="N57" s="16" t="s"/>
       <x:c r="O57" s="16" t="s"/>
       <x:c r="P57" s="16" t="s"/>
+      <x:c r="Q57" s="16" t="s"/>
+      <x:c r="R57" s="16" t="s"/>
     </x:row>
     <x:row r="58" spans="1:146">
       <x:c r="B58" s="14" t="s">
@@ -2221,7 +2294,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="15" t="n">
-        <x:v>143515.065166666</x:v>
+        <x:v>46318.0004374997</x:v>
       </x:c>
       <x:c r="E58" s="16" t="s"/>
       <x:c r="F58" s="16" t="s"/>
@@ -2235,6 +2308,8 @@
       <x:c r="N58" s="16" t="s"/>
       <x:c r="O58" s="16" t="s"/>
       <x:c r="P58" s="16" t="s"/>
+      <x:c r="Q58" s="16" t="s"/>
+      <x:c r="R58" s="16" t="s"/>
     </x:row>
     <x:row r="59" spans="1:146">
       <x:c r="B59" s="14" t="s">
@@ -2244,7 +2319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D59" s="15" t="n">
-        <x:v>36334.9508749998</x:v>
+        <x:v>113962.684416666</x:v>
       </x:c>
       <x:c r="E59" s="16" t="s"/>
       <x:c r="F59" s="16" t="s"/>
@@ -2258,6 +2333,8 @@
       <x:c r="N59" s="16" t="s"/>
       <x:c r="O59" s="16" t="s"/>
       <x:c r="P59" s="16" t="s"/>
+      <x:c r="Q59" s="16" t="s"/>
+      <x:c r="R59" s="16" t="s"/>
     </x:row>
     <x:row r="60" spans="1:146">
       <x:c r="B60" s="14" t="s">
@@ -2267,7 +2344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="15" t="n">
-        <x:v>46318.0004374997</x:v>
+        <x:v>46872.7499374997</x:v>
       </x:c>
       <x:c r="E60" s="16" t="s"/>
       <x:c r="F60" s="16" t="s"/>
@@ -2281,6 +2358,8 @@
       <x:c r="N60" s="16" t="s"/>
       <x:c r="O60" s="16" t="s"/>
       <x:c r="P60" s="16" t="s"/>
+      <x:c r="Q60" s="16" t="s"/>
+      <x:c r="R60" s="16" t="s"/>
     </x:row>
     <x:row r="61" spans="1:146">
       <x:c r="B61" s="14" t="s">
@@ -2290,7 +2369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="15" t="n">
-        <x:v>113962.684416666</x:v>
+        <x:v>108356.855145832</x:v>
       </x:c>
       <x:c r="E61" s="16" t="s"/>
       <x:c r="F61" s="16" t="s"/>
@@ -2304,6 +2383,8 @@
       <x:c r="N61" s="16" t="s"/>
       <x:c r="O61" s="16" t="s"/>
       <x:c r="P61" s="16" t="s"/>
+      <x:c r="Q61" s="16" t="s"/>
+      <x:c r="R61" s="16" t="s"/>
     </x:row>
     <x:row r="62" spans="1:146">
       <x:c r="B62" s="14" t="s">
@@ -2313,7 +2394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="15" t="n">
-        <x:v>46872.7499374997</x:v>
+        <x:v>77727.7587916666</x:v>
       </x:c>
       <x:c r="E62" s="16" t="s"/>
       <x:c r="F62" s="16" t="s"/>
@@ -2327,6 +2408,8 @@
       <x:c r="N62" s="16" t="s"/>
       <x:c r="O62" s="16" t="s"/>
       <x:c r="P62" s="16" t="s"/>
+      <x:c r="Q62" s="16" t="s"/>
+      <x:c r="R62" s="16" t="s"/>
     </x:row>
     <x:row r="63" spans="1:146">
       <x:c r="B63" s="14" t="s">
@@ -2336,7 +2419,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D63" s="15" t="n">
-        <x:v>108356.855145832</x:v>
+        <x:v>637762.548416663</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s"/>
       <x:c r="F63" s="16" t="s"/>
@@ -2350,6 +2433,8 @@
       <x:c r="N63" s="16" t="s"/>
       <x:c r="O63" s="16" t="s"/>
       <x:c r="P63" s="16" t="s"/>
+      <x:c r="Q63" s="16" t="s"/>
+      <x:c r="R63" s="16" t="s"/>
     </x:row>
     <x:row r="64" spans="1:146">
       <x:c r="B64" s="14" t="s">
@@ -2359,7 +2444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="15" t="n">
-        <x:v>77727.7587916666</x:v>
+        <x:v>156258.895375</x:v>
       </x:c>
       <x:c r="E64" s="16" t="s"/>
       <x:c r="F64" s="16" t="s"/>
@@ -2373,6 +2458,8 @@
       <x:c r="N64" s="16" t="s"/>
       <x:c r="O64" s="16" t="s"/>
       <x:c r="P64" s="16" t="s"/>
+      <x:c r="Q64" s="16" t="s"/>
+      <x:c r="R64" s="16" t="s"/>
     </x:row>
     <x:row r="65" spans="1:146">
       <x:c r="B65" s="14" t="s">
@@ -2382,12 +2469,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="15" t="n">
-        <x:v>637762.548416663</x:v>
-      </x:c>
-      <x:c r="E65" s="16" t="s"/>
-      <x:c r="F65" s="16" t="s"/>
-      <x:c r="G65" s="16" t="s"/>
-      <x:c r="H65" s="16" t="s"/>
+        <x:v>105876.739354166</x:v>
+      </x:c>
+      <x:c r="E65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I65" s="16" t="s"/>
       <x:c r="J65" s="16" t="s"/>
       <x:c r="K65" s="16" t="s"/>
@@ -2396,6 +2491,8 @@
       <x:c r="N65" s="16" t="s"/>
       <x:c r="O65" s="16" t="s"/>
       <x:c r="P65" s="16" t="s"/>
+      <x:c r="Q65" s="16" t="s"/>
+      <x:c r="R65" s="16" t="s"/>
     </x:row>
     <x:row r="66" spans="1:146">
       <x:c r="B66" s="14" t="s">
@@ -2405,12 +2502,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="15" t="n">
-        <x:v>156258.895375</x:v>
-      </x:c>
-      <x:c r="E66" s="16" t="s"/>
-      <x:c r="F66" s="16" t="s"/>
-      <x:c r="G66" s="16" t="s"/>
-      <x:c r="H66" s="16" t="s"/>
+        <x:v>99153.3812499994</x:v>
+      </x:c>
+      <x:c r="E66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I66" s="16" t="s"/>
       <x:c r="J66" s="16" t="s"/>
       <x:c r="K66" s="16" t="s"/>
@@ -2419,6 +2524,8 @@
       <x:c r="N66" s="16" t="s"/>
       <x:c r="O66" s="16" t="s"/>
       <x:c r="P66" s="16" t="s"/>
+      <x:c r="Q66" s="16" t="s"/>
+      <x:c r="R66" s="16" t="s"/>
     </x:row>
     <x:row r="67" spans="1:146">
       <x:c r="B67" s="14" t="s">
@@ -2428,20 +2535,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="15" t="n">
-        <x:v>105876.739354166</x:v>
-      </x:c>
-      <x:c r="E67" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F67" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G67" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>223845.970854166</x:v>
+      </x:c>
+      <x:c r="E67" s="16" t="s"/>
+      <x:c r="F67" s="16" t="s"/>
+      <x:c r="G67" s="16" t="s"/>
+      <x:c r="H67" s="16" t="s"/>
       <x:c r="I67" s="16" t="s"/>
       <x:c r="J67" s="16" t="s"/>
       <x:c r="K67" s="16" t="s"/>
@@ -2450,6 +2549,8 @@
       <x:c r="N67" s="16" t="s"/>
       <x:c r="O67" s="16" t="s"/>
       <x:c r="P67" s="16" t="s"/>
+      <x:c r="Q67" s="16" t="s"/>
+      <x:c r="R67" s="16" t="s"/>
     </x:row>
     <x:row r="68" spans="1:146">
       <x:c r="B68" s="14" t="s">
@@ -2459,20 +2560,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="15" t="n">
-        <x:v>99153.3812499994</x:v>
-      </x:c>
-      <x:c r="E68" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F68" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G68" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>5003.53333333333</x:v>
+      </x:c>
+      <x:c r="E68" s="16" t="s"/>
+      <x:c r="F68" s="16" t="s"/>
+      <x:c r="G68" s="16" t="s"/>
+      <x:c r="H68" s="16" t="s"/>
       <x:c r="I68" s="16" t="s"/>
       <x:c r="J68" s="16" t="s"/>
       <x:c r="K68" s="16" t="s"/>
@@ -2481,52 +2574,8 @@
       <x:c r="N68" s="16" t="s"/>
       <x:c r="O68" s="16" t="s"/>
       <x:c r="P68" s="16" t="s"/>
-    </x:row>
-    <x:row r="69" spans="1:146">
-      <x:c r="B69" s="14" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C69" s="15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D69" s="15" t="n">
-        <x:v>223845.970854166</x:v>
-      </x:c>
-      <x:c r="E69" s="16" t="s"/>
-      <x:c r="F69" s="16" t="s"/>
-      <x:c r="G69" s="16" t="s"/>
-      <x:c r="H69" s="16" t="s"/>
-      <x:c r="I69" s="16" t="s"/>
-      <x:c r="J69" s="16" t="s"/>
-      <x:c r="K69" s="16" t="s"/>
-      <x:c r="L69" s="16" t="s"/>
-      <x:c r="M69" s="16" t="s"/>
-      <x:c r="N69" s="16" t="s"/>
-      <x:c r="O69" s="16" t="s"/>
-      <x:c r="P69" s="16" t="s"/>
-    </x:row>
-    <x:row r="70" spans="1:146">
-      <x:c r="B70" s="14" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C70" s="15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D70" s="15" t="n">
-        <x:v>5003.53333333333</x:v>
-      </x:c>
-      <x:c r="E70" s="16" t="s"/>
-      <x:c r="F70" s="16" t="s"/>
-      <x:c r="G70" s="16" t="s"/>
-      <x:c r="H70" s="16" t="s"/>
-      <x:c r="I70" s="16" t="s"/>
-      <x:c r="J70" s="16" t="s"/>
-      <x:c r="K70" s="16" t="s"/>
-      <x:c r="L70" s="16" t="s"/>
-      <x:c r="M70" s="16" t="s"/>
-      <x:c r="N70" s="16" t="s"/>
-      <x:c r="O70" s="16" t="s"/>
-      <x:c r="P70" s="16" t="s"/>
+      <x:c r="Q68" s="16" t="s"/>
+      <x:c r="R68" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -2546,7 +2595,7 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C83" sqref="C83"/>
+      <x:selection activeCell="C81" sqref="C81"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2603,8 @@
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="23.980625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="6" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.270625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="6" width="14.700625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="15.980625" style="0" customWidth="1"/>
     <x:col min="8" max="17" width="13.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
@@ -2565,7 +2615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -2612,52 +2662,52 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E2" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F2" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="J2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="L2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="M2" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N2" s="19" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E2" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F2" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G2" s="19" t="s">
+      <x:c r="O2" s="19" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="H2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="J2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="K2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="L2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="M2" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="N2" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="O2" s="19" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -2665,49 +2715,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
+      <x:c r="G3" s="19" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -2715,99 +2765,99 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
+      <x:c r="F4" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G4" s="19" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E4" s="19" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F4" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -2815,199 +2865,199 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D6" s="19" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E6" s="19" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D6" s="19" t="s">
+      <x:c r="F6" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G6" s="19" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E6" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F6" s="19" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G6" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D7" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E7" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F7" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G7" s="19" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D7" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E7" s="19" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F7" s="19" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G7" s="19" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>94</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -3015,49 +3065,49 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -3065,49 +3115,49 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -3115,49 +3165,49 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -3165,49 +3215,49 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -3215,49 +3265,49 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -3265,49 +3315,49 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -3315,49 +3365,49 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -3365,49 +3415,49 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -3415,49 +3465,49 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -3465,49 +3515,49 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
@@ -3515,49 +3565,49 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
@@ -3565,49 +3615,49 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
@@ -3615,49 +3665,49 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
@@ -3665,49 +3715,49 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
@@ -3715,49 +3765,49 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
@@ -3765,49 +3815,49 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
@@ -3815,49 +3865,49 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -3865,49 +3915,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
@@ -3915,49 +3965,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -3965,49 +4015,49 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -4015,49 +4065,49 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
@@ -4065,49 +4115,49 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4115,49 +4165,49 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4165,49 +4215,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4215,49 +4265,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -4265,49 +4315,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -4315,49 +4365,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -4365,49 +4415,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -4415,49 +4465,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -4465,49 +4515,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -4515,49 +4565,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -4565,49 +4615,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -4615,49 +4665,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -4665,49 +4715,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -4715,49 +4765,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -4765,49 +4815,49 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -4815,49 +4865,49 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -4865,49 +4915,49 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -4915,49 +4965,49 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -4965,49 +5015,49 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -5015,49 +5065,49 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C50" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -5065,49 +5115,49 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C51" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -5115,49 +5165,49 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -5165,49 +5215,49 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -5215,49 +5265,49 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -5265,49 +5315,49 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -5315,49 +5365,49 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -5365,49 +5415,49 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -5415,49 +5465,49 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -5465,49 +5515,49 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -5515,49 +5565,49 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -5565,49 +5615,49 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -5615,49 +5665,49 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C62" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -5665,49 +5715,49 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C63" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -5715,49 +5765,49 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C64" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -5765,49 +5815,49 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C65" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -5815,49 +5865,49 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C66" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -5865,49 +5915,49 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D67" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F67" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G67" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -5915,149 +5965,49 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C68" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:36">
-      <x:c r="B69" s="14" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C69" s="18" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="L69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q69" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:36">
-      <x:c r="B70" s="14" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C70" s="18" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="L70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P70" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q70" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
